--- a/data/extracted_data/raw_round2/data/Braga_etal_2021_Fig2.xlsx
+++ b/data/extracted_data/raw_round2/data/Braga_etal_2021_Fig2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{AC95D2F1-73B7-3F42-BDAE-D7D19C2F5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{823307F2-02AF-F04A-B3AF-F2C02C3F4D16}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{AC95D2F1-73B7-3F42-BDAE-D7D19C2F5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF680D70-185C-6540-AB33-90DB456A16B3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{01BD859D-414E-0D4D-A9B0-FA06CB2FD9BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="15">
   <si>
     <t>treatment</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Depuration</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,6 +472,9 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">

--- a/data/extracted_data/raw_round2/data/Braga_etal_2021_Fig2.xlsx
+++ b/data/extracted_data/raw_round2/data/Braga_etal_2021_Fig2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{AC95D2F1-73B7-3F42-BDAE-D7D19C2F5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF680D70-185C-6540-AB33-90DB456A16B3}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{AC95D2F1-73B7-3F42-BDAE-D7D19C2F5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9D98337-4683-5B41-A790-F3D8484AA101}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{01BD859D-414E-0D4D-A9B0-FA06CB2FD9BD}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>Depuration</t>
   </si>
   <si>
-    <t>notes</t>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="3" width="31" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="6" max="6" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
